--- a/Shift Code Templates/HW_template.xlsx
+++ b/Shift Code Templates/HW_template.xlsx
@@ -64,6 +64,9 @@
     <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_Sheet1">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
+    <number:number-style style:name="N1">
+      <number:number number:decimal-places="0" number:min-integer-digits="1"/>
+    </number:number-style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
@@ -79,147 +82,132 @@
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N1">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
     <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties fo:background-color="#000000" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:rotation-align="none"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
     <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:table-cell-properties fo:background-color="#000000" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:background-color="#000000" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N8000">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N8000">
       <style:table-cell-properties fo:background-color="#000000" style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
     <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -230,468 +218,490 @@
       </table:calculation-settings>
       <table:table table:name="Sheet1" table:style-name="ta4" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce9"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce15"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce9"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce9"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce9"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce30"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce9"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce9"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce6"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce12"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce6"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce6"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce6"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce27"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce6"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce6"/>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>PETC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="1006"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="1006"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>Shift Code Monitoring </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="1006"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="1006"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>Attendance Period: Sept 16-30,2011</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce13"/>
           <table:table-cell table:style-name="ce16"/>
           <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="1006"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce26"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="1006"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce10"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce18" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce22" table:number-columns-repeated="1006"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19" table:number-columns-repeated="1006"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="ce2"/>
-          <table:table-cell table:style-name="ce11"/>
-          <table:table-cell table:style-name="ce17"/>
-          <table:table-cell table:style-name="ce20" table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce31" table:number-columns-repeated="1004"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:style-name="ce17" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>Badge no.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce9" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>NAMES</text:p>
           </table:table-cell>
           <table:covered-table-cell table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce21"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce32" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15302">
-            <text:p>15302</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce20" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="1180">
+            <text:p>1180</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Roman</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Carla</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15272">
-            <text:p>15272</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="25069">
+            <text:p>25069</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Zavala</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>William</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15273">
-            <text:p>15273</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="60524">
+            <text:p>60524</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Rhodes</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Gage</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15281">
-            <text:p>15281</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="78759">
+            <text:p>78759</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Ewing</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Enzo</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="15374">
-            <text:p>15374</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="3363">
+            <text:p>3363</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Decker</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Yaritza</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="15401">
-            <text:p>15401</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="51727">
+            <text:p>51727</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Archer</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Frida</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15067">
-            <text:p>15067</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="75653">
+            <text:p>75653</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Rosales</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Thomas</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15184">
-            <text:p>15184</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="95060">
+            <text:p>95060</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Holt</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Jaylen</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce7" office:value-type="float" office:value="12853">
-            <text:p>12853</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="41143">
+            <text:p>41143</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Middleton</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Zariah</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="11362">
-            <text:p>11362</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="93378">
+            <text:p>93378</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Stephens</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Lailah</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15301">
-            <text:p>15301</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="92913">
+            <text:p>92913</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Madden</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Leticia</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13413">
-            <text:p>13413</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="82337">
+            <text:p>82337</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Dalton</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Damian</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce8" office:value-type="float" office:value="13342">
-            <text:p>13342</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="94065">
+            <text:p>94065</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Small</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Quinn</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce33" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15247">
-            <text:p>15247</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce30" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="9455">
+            <text:p>9455</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Singh</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Jordon</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13557">
-            <text:p>13557</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15819">
+            <text:p>15819</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Padilla</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Jeffery</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15147">
-            <text:p>15147</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="32137">
+            <text:p>32137</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Morales</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Cohen</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13947">
-            <text:p>13947</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="22491">
+            <text:p>22491</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Ross</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Dawson</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15052">
-            <text:p>15052</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="36092">
+            <text:p>36092</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Baird</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Angie</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15322">
-            <text:p>15322</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="43028">
+            <text:p>43028</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Spence</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Eduardo</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15337">
-            <text:p>15337</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="26591">
+            <text:p>26591</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Mccann</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Aleah</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce7" office:value-type="float" office:value="12549">
-            <text:p>12549</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="10664">
+            <text:p>10664</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Mueller</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Ryker</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15154">
-            <text:p>15154</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="94198">
+            <text:p>94198</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Mendez</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Alison</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce14"/>
-          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce22" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce5"/>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce27"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce27"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce27"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2" table:number-rows-repeated="1048541">
@@ -727,11 +737,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2018-11-05T20:03:20.13</dc:date>
+    <dc:date>2018-11-25T10:21:59.12</dc:date>
     <dc:creator>Jason Marc Alegado</dc:creator>
     <meta:generator>OpenOffice/4.0.1$Win32 OpenOffice.org_project/401m5$Build-9714</meta:generator>
-    <meta:editing-duration>PT1M</meta:editing-duration>
-    <meta:editing-cycles>3</meta:editing-cycles>
+    <meta:editing-duration>PT6M19S</meta:editing-duration>
+    <meta:editing-cycles>4</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="71" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
@@ -750,8 +760,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">41</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">53</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -760,7 +770,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">17</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">29</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -898,6 +908,9 @@
       <number:text-content/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N119P0"/>
     </number:text-style>
+    <number:number-style style:name="N120">
+      <number:number number:decimal-places="0" number:min-integer-digits="0"/>
+    </number:number-style>
     <number:number-style style:name="N8116P0" style:volatile="true" number:language="en" number:country="SG">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
@@ -991,6 +1004,12 @@
     </number:time-style>
     <number:number-style style:name="N8131" number:language="en" number:country="SG">
       <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
+    </number:number-style>
+    <number:number-style style:name="N8132" number:language="en" number:country="SG">
+      <number:number number:decimal-places="11" number:min-integer-digits="1"/>
+    </number:number-style>
+    <number:number-style style:name="N8133" number:language="en" number:country="SG">
+      <number:number number:decimal-places="10" number:min-integer-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
       <style:text-properties style:font-name-asian="Microsoft YaHei" style:font-name-complex="Lucida Sans"/>
@@ -1079,9 +1098,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-11-05">11/05/2018</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-11-25">11/25/2018</text:date>
             , 
-            <text:time>20:03:20</text:time>
+            <text:time>10:21:59</text:time>
           </text:p>
         </style:region-right>
       </style:header>
